--- a/genshin/435870469659616407_2020-09-17_14-00-02.xlsx
+++ b/genshin/435870469659616407_2020-09-17_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:37:33</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10940972222</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3517245229</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:58:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44095.99884259259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -698,10 +710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:41:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44095.61185185185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-20 23:33:29</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44094.98158564815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -840,10 +848,8 @@
           <t>3509392176</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-19 20:28:40</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44093.85324074074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -911,10 +917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-19 13:33:41</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44093.56505787037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -974,10 +978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-19 13:03:22</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44093.54400462963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1041,10 +1043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-19 01:37:45</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44093.06788194444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1116,10 +1116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-19 00:36:56</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44093.02564814815</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-18 23:12:57</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44092.96732638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1262,10 +1258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-18 22:09:59</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44092.92359953704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1337,10 +1331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-18 17:03:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44092.71096064815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1416,10 +1408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-18 16:20:34</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44092.68094907407</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1483,10 +1473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-18 14:36:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44092.60873842592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1554,10 +1542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-18 12:11:32</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44092.50800925926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1633,10 +1619,8 @@
           <t>3501443258</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-18 10:53:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44092.45376157408</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1700,10 +1684,8 @@
           <t>3501941028</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-18 10:52:48</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44092.45333333333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1767,10 +1749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-18 10:10:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44092.42428240741</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1846,10 +1826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-18 09:39:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44092.40266203704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1917,10 +1895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-18 01:30:11</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44092.06262731482</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1992,10 +1968,8 @@
           <t>3503336951</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-18 01:15:33</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44092.05246527777</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2059,10 +2033,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:59:29</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44091.99964120371</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2122,10 +2094,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:39:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44091.98555555556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2193,10 +2163,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:36:46</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44091.98386574074</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2264,10 +2232,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:31:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44091.98047453703</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2327,10 +2293,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-17 23:24:03</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44091.97503472222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2398,10 +2362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-17 22:53:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44091.95408564815</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2465,10 +2427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-17 22:26:20</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44091.93495370371</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2545,10 +2505,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-17 21:48:44</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44091.90884259259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2612,10 +2570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-17 21:36:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44091.90052083333</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2675,10 +2631,8 @@
           <t>3502530110</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-17 21:28:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44091.8944675926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2754,10 +2708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-17 21:12:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44091.88394675926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2821,10 +2773,8 @@
           <t>3502423696</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-17 21:02:34</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44091.87678240741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2901,10 +2851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:52:14</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44091.86960648148</v>
       </c>
       <c r="I35" t="n">
         <v>16</v>
@@ -2972,10 +2920,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:51:40</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44091.86921296296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3043,10 +2989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:41:07</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44091.86188657407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3117,10 +3061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:34:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44091.8575462963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3189,10 +3131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:18:57</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44091.84649305556</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3256,10 +3196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:17:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44091.8453125</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3336,10 +3274,8 @@
           <t>3502260027</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:13:24</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44091.84263888889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3411,10 +3347,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:57:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44091.83144675926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3490,10 +3424,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:53:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44091.82891203704</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3565,10 +3497,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:41:54</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44091.82076388889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3632,10 +3562,8 @@
           <t>3502104627</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:34:32</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44091.81564814815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3707,10 +3635,8 @@
           <t>3502094155</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:31:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44091.81331018519</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3782,10 +3708,8 @@
           <t>3502018067</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:09:36</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44091.79833333333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3857,10 +3781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:03:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44091.79439814815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3924,10 +3846,8 @@
           <t>3501941028</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:59:09</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44091.79107638889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3996,10 +3916,8 @@
           <t>3501936823</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:47:47</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44091.78318287037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4063,10 +3981,8 @@
           <t>3501941028</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:47:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44091.7830787037</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
@@ -4134,10 +4050,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:45:48</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44091.78180555555</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4205,10 +4119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:37:47</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44091.77623842593</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4280,10 +4192,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:24:08</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44091.76675925926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4347,10 +4257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:23:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44091.76612268519</v>
       </c>
       <c r="I55" t="n">
         <v>5</v>
@@ -4422,10 +4330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:55:08</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44091.74662037037</v>
       </c>
       <c r="I56" t="n">
         <v>17</v>
@@ -4494,10 +4400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:53:07</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44091.74521990741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4561,10 +4465,8 @@
           <t>3501720515</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:46:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44091.74042824074</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4640,10 +4542,8 @@
           <t>3501710513</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:44:59</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44091.73957175926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4719,10 +4619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:44:53</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44091.73950231481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4790,10 +4688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:38:59</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44091.73540509259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4861,10 +4757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:25:51</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44091.72628472222</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4936,10 +4830,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:20:19</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44091.72244212963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5003,10 +4895,8 @@
           <t>3501603107</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:09:35</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44091.71498842593</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5070,10 +4960,8 @@
           <t>3501478718</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:06:35</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44091.71290509259</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5141,10 +5029,8 @@
           <t>3501581385</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-17 17:02:26</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44091.71002314815</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5208,10 +5094,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:59:27</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44091.70795138889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5275,10 +5159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:57:16</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44091.70643518519</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5346,10 +5228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:51:22</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44091.70233796296</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5425,10 +5305,8 @@
           <t>3501478718</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:45:59</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44091.69859953703</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5504,10 +5382,8 @@
           <t>3501478718</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:45:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44091.6985300926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5583,10 +5459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:43:07</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44091.69660879629</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5658,10 +5532,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:42:54</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44091.69645833333</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5725,10 +5597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:39:00</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44091.69375</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5796,10 +5666,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:29:52</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44091.68740740741</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5871,10 +5739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:29:00</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44091.68680555555</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5938,10 +5804,8 @@
           <t>3501478718</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:26:02</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44091.68474537037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6009,10 +5873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:23:55</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44091.68327546296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6080,10 +5942,8 @@
           <t>3501443258</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:12:50</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44091.6755787037</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6151,10 +6011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:10:55</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44091.67424768519</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6230,10 +6088,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:10:44</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44091.67412037037</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6297,10 +6153,8 @@
           <t>3501441372</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:10:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44091.67398148148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6368,10 +6222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:06:15</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44091.67100694445</v>
       </c>
       <c r="I83" t="n">
         <v>26</v>
@@ -6448,10 +6300,8 @@
           <t>3501423565</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:01:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44091.66800925926</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6523,10 +6373,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:59:32</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44091.66634259259</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6590,10 +6438,8 @@
           <t>3501404595</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:57:12</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44091.66472222222</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6657,10 +6503,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:55:12</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44091.66333333333</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6724,10 +6568,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:53:35</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44091.66221064814</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6791,10 +6633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:53:00</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44091.66180555556</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6858,10 +6698,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:52:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44091.6611574074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6925,10 +6763,8 @@
           <t>3501400494</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:52:02</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44091.66113425926</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6992,10 +6828,8 @@
           <t>3501394788</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:51:13</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44091.66056712963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7059,10 +6893,8 @@
           <t>3501394640</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:51:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44091.66043981481</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7126,10 +6958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:50:54</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44091.66034722222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7201,10 +7031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:48:52</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44091.65893518519</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7268,10 +7096,8 @@
           <t>3501337827</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:48:45</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44091.65885416666</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7335,10 +7161,8 @@
           <t>3501391052</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:46:29</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44091.65728009259</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7402,10 +7226,8 @@
           <t>3501379626</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:44:42</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44091.65604166667</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7473,10 +7295,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:42:26</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44091.65446759259</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7548,10 +7368,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:34:47</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44091.64915509259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7623,10 +7441,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:34:32</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44091.64898148148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7698,10 +7514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:30:57</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44091.64649305555</v>
       </c>
       <c r="I102" t="n">
         <v>12</v>
@@ -7769,10 +7583,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:29:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44091.64571759259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7832,10 +7644,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:28:45</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44091.64496527778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7907,10 +7717,8 @@
           <t>3501337827</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:27:32</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44091.64412037037</v>
       </c>
       <c r="I105" t="n">
         <v>22</v>
@@ -7986,10 +7794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:25:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44091.64293981482</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8065,10 +7871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:24:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44091.64215277778</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8140,10 +7944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:23:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44091.64108796296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8211,10 +8013,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:23:03</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44091.64100694445</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8286,10 +8086,8 @@
           <t>3501330067</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:19:55</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44091.63883101852</v>
       </c>
       <c r="I110" t="n">
         <v>19</v>
@@ -8361,10 +8159,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:17:52</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44091.6374074074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8424,10 +8220,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:16:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44091.63644675926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8487,10 +8281,8 @@
           <t>3501311459</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:15:06</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44091.63548611111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8562,10 +8354,8 @@
           <t>3501310448</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:13:42</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44091.63451388889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8641,10 +8431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:05:41</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44091.62894675926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8720,10 +8508,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-17 15:03:59</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44091.6277662037</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8795,10 +8581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:58:35</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44091.62401620371</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8876,10 +8660,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:56:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44091.62237268518</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8951,10 +8733,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:53:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44091.62034722222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9030,10 +8810,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:49:36</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44091.61777777778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9097,10 +8875,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:49:33</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44091.61774305555</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9172,10 +8948,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:48:51</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44091.61725694445</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9247,10 +9021,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:46:58</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44091.61594907408</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9322,10 +9094,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:45:21</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44091.61482638889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9401,10 +9171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:44:23</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44091.61415509259</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9476,10 +9244,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:42:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44091.61280092593</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9543,10 +9309,8 @@
           <t>3501232870</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:40:09</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44091.61121527778</v>
       </c>
       <c r="I127" t="n">
         <v>9</v>
@@ -9618,10 +9382,8 @@
           <t>3501228335</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:37:14</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44091.60918981482</v>
       </c>
       <c r="I128" t="n">
         <v>36</v>
@@ -9697,10 +9459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:36:16</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44091.60851851852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9768,10 +9528,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:35:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44091.60822916667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9831,10 +9589,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:35:23</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44091.60790509259</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9894,10 +9650,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:31:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44091.60542824074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9961,10 +9715,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:31:41</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44091.60533564815</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10036,10 +9788,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:31:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44091.60518518519</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10103,10 +9853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:30:57</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44091.60482638889</v>
       </c>
       <c r="I135" t="n">
         <v>9</v>
@@ -10174,10 +9922,8 @@
           <t>3501213195</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:30:37</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44091.60459490741</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10245,10 +9991,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:29:10</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44091.60358796296</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10312,10 +10056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:25:55</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44091.60133101852</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10391,10 +10133,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:25:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44091.60081018518</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10454,10 +10194,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:24:09</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44091.60010416667</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10517,10 +10255,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:23:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44091.59944444444</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10592,10 +10328,8 @@
           <t>3501192671</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:22:58</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44091.59928240741</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10663,10 +10397,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:22:31</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44091.59896990741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10730,10 +10462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:22:21</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44091.59885416667</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10809,10 +10539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:20:01</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44091.5972337963</v>
       </c>
       <c r="I145" t="n">
         <v>14</v>
@@ -10888,10 +10616,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:17:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44091.59569444445</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10951,10 +10677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:16:38</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44091.59488425926</v>
       </c>
       <c r="I147" t="n">
         <v>22</v>
@@ -11030,10 +10754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:15:48</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44091.59430555555</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11109,10 +10831,8 @@
           <t>3501174737</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:15:05</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44091.59380787037</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11188,10 +10908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:14:08</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44091.59314814815</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11267,10 +10985,8 @@
           <t>3501175721</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:13:46</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44091.59289351852</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11338,10 +11054,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:13:37</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44091.59278935185</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11413,10 +11127,8 @@
           <t>3501173179</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:13:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44091.59243055555</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11484,10 +11196,8 @@
           <t>3501172764</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:12:34</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44091.59206018518</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11555,10 +11265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:12:14</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44091.59182870371</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11626,10 +11334,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:11:33</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44091.59135416667</v>
       </c>
       <c r="I156" t="n">
         <v>5</v>
@@ -11705,10 +11411,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:10:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44091.59065972222</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11780,10 +11484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:10:27</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44091.59059027778</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11847,10 +11549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:09:40</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44091.5900462963</v>
       </c>
       <c r="I159" t="n">
         <v>56</v>
@@ -11918,10 +11618,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:09:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44091.5900462963</v>
       </c>
       <c r="I160" t="n">
         <v>9</v>
@@ -11993,10 +11691,8 @@
           <t>3501170234</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:09:19</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44091.58980324074</v>
       </c>
       <c r="I161" t="n">
         <v>26</v>
@@ -12068,10 +11764,8 @@
           <t>3501161020</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:07:49</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44091.58876157407</v>
       </c>
       <c r="I162" t="n">
         <v>17</v>
@@ -12143,10 +11837,8 @@
           <t>3501160385</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:07:00</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44091.58819444444</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12206,10 +11898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:06:15</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44091.58767361111</v>
       </c>
       <c r="I164" t="n">
         <v>190</v>
@@ -12277,10 +11967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:05:14</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44091.58696759259</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12344,10 +12032,8 @@
           <t>3501153511</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:05:03</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44091.58684027778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12423,10 +12109,8 @@
           <t>3501156337</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:04:29</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44091.58644675926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12498,10 +12182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:04:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44091.58635416667</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12573,10 +12255,8 @@
           <t>3501155336</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:03:41</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44091.5858912037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12652,10 +12332,8 @@
           <t>3501155336</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:03:13</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44091.58556712963</v>
       </c>
       <c r="I170" t="n">
         <v>41</v>
@@ -12719,10 +12397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:02:42</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44091.58520833333</v>
       </c>
       <c r="I171" t="n">
         <v>103</v>
@@ -12782,10 +12458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:01:53</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44091.58464120371</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12855,10 +12529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:01:50</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44091.58460648148</v>
       </c>
       <c r="I173" t="n">
         <v>216</v>
@@ -12934,10 +12606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:01:24</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44091.58430555555</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13001,10 +12671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:01:09</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44091.58413194444</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13072,10 +12740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-17 14:00:27</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44091.58364583334</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
